--- a/specifications/lp/Business intelligence systems - Project - Loan Portfolio Data Specification - V6.12.3.xlsx
+++ b/specifications/lp/Business intelligence systems - Project - Loan Portfolio Data Specification - V6.12.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GitHub\ShrForms\specifications\lp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C648F03D-61D6-4696-BF1D-2CB9C79CF834}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818E63E0-5FC4-46D9-AA36-0455BCA68485}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" tabRatio="804" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6665,19 +6665,19 @@
     <xf numFmtId="0" fontId="32" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9466,12 +9466,12 @@
       <c r="D8" s="218" t="s">
         <v>173</v>
       </c>
-      <c r="E8" s="221"/>
-      <c r="F8" s="219"/>
+      <c r="E8" s="219"/>
+      <c r="F8" s="220"/>
       <c r="G8" s="218" t="s">
         <v>174</v>
       </c>
-      <c r="H8" s="219"/>
+      <c r="H8" s="220"/>
       <c r="I8" s="73"/>
       <c r="J8" s="73"/>
     </row>
@@ -9479,15 +9479,15 @@
       <c r="C9" s="74">
         <v>1431</v>
       </c>
-      <c r="D9" s="222" t="s">
+      <c r="D9" s="221" t="s">
         <v>448</v>
       </c>
-      <c r="E9" s="222"/>
-      <c r="F9" s="222"/>
-      <c r="G9" s="220">
+      <c r="E9" s="221"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="223">
         <v>1000.1</v>
       </c>
-      <c r="H9" s="220"/>
+      <c r="H9" s="223"/>
       <c r="I9" s="77" t="s">
         <v>1121</v>
       </c>
@@ -9499,15 +9499,15 @@
       <c r="C10" s="74">
         <v>1432</v>
       </c>
-      <c r="D10" s="222" t="s">
+      <c r="D10" s="221" t="s">
         <v>457</v>
       </c>
-      <c r="E10" s="222"/>
-      <c r="F10" s="222"/>
-      <c r="G10" s="220">
+      <c r="E10" s="221"/>
+      <c r="F10" s="221"/>
+      <c r="G10" s="223">
         <v>2000.9</v>
       </c>
-      <c r="H10" s="220"/>
+      <c r="H10" s="223"/>
       <c r="I10" s="77" t="s">
         <v>1121</v>
       </c>
@@ -9532,12 +9532,12 @@
       <c r="D12" s="218" t="s">
         <v>336</v>
       </c>
-      <c r="E12" s="219"/>
+      <c r="E12" s="220"/>
       <c r="F12" s="218" t="s">
         <v>338</v>
       </c>
-      <c r="G12" s="221"/>
-      <c r="H12" s="219"/>
+      <c r="G12" s="219"/>
+      <c r="H12" s="220"/>
       <c r="I12" s="73"/>
       <c r="J12" s="73"/>
     </row>
@@ -9545,15 +9545,15 @@
       <c r="C13" s="74">
         <v>13475</v>
       </c>
-      <c r="D13" s="222" t="s">
+      <c r="D13" s="221" t="s">
         <v>899</v>
       </c>
-      <c r="E13" s="222"/>
-      <c r="F13" s="222" t="s">
+      <c r="E13" s="221"/>
+      <c r="F13" s="221" t="s">
         <v>878</v>
       </c>
-      <c r="G13" s="222"/>
-      <c r="H13" s="222"/>
+      <c r="G13" s="221"/>
+      <c r="H13" s="221"/>
       <c r="I13" s="77" t="s">
         <v>1121</v>
       </c>
@@ -9565,15 +9565,15 @@
       <c r="C14" s="74">
         <v>13476</v>
       </c>
-      <c r="D14" s="222" t="s">
+      <c r="D14" s="221" t="s">
         <v>917</v>
       </c>
-      <c r="E14" s="222"/>
-      <c r="F14" s="222" t="s">
+      <c r="E14" s="221"/>
+      <c r="F14" s="221" t="s">
         <v>880</v>
       </c>
-      <c r="G14" s="222"/>
-      <c r="H14" s="222"/>
+      <c r="G14" s="221"/>
+      <c r="H14" s="221"/>
       <c r="I14" s="77" t="s">
         <v>1121</v>
       </c>
@@ -9783,8 +9783,8 @@
       <c r="E25" s="218" t="s">
         <v>332</v>
       </c>
-      <c r="F25" s="221"/>
-      <c r="G25" s="219"/>
+      <c r="F25" s="219"/>
+      <c r="G25" s="220"/>
       <c r="H25" s="73" t="s">
         <v>1123</v>
       </c>
@@ -9844,12 +9844,12 @@
       <c r="D29" s="218" t="s">
         <v>336</v>
       </c>
-      <c r="E29" s="219"/>
+      <c r="E29" s="220"/>
       <c r="F29" s="218" t="s">
         <v>338</v>
       </c>
-      <c r="G29" s="221"/>
-      <c r="H29" s="219"/>
+      <c r="G29" s="219"/>
+      <c r="H29" s="220"/>
       <c r="I29" s="79"/>
       <c r="J29" s="73"/>
     </row>
@@ -9857,15 +9857,15 @@
       <c r="C30" s="74">
         <v>13473</v>
       </c>
-      <c r="D30" s="222" t="s">
+      <c r="D30" s="221" t="s">
         <v>899</v>
       </c>
-      <c r="E30" s="222"/>
-      <c r="F30" s="222" t="s">
+      <c r="E30" s="221"/>
+      <c r="F30" s="221" t="s">
         <v>878</v>
       </c>
-      <c r="G30" s="222"/>
-      <c r="H30" s="222"/>
+      <c r="G30" s="221"/>
+      <c r="H30" s="221"/>
       <c r="I30" s="77" t="s">
         <v>1121</v>
       </c>
@@ -9877,15 +9877,15 @@
       <c r="C31" s="74">
         <v>13474</v>
       </c>
-      <c r="D31" s="222" t="s">
+      <c r="D31" s="221" t="s">
         <v>921</v>
       </c>
-      <c r="E31" s="222"/>
-      <c r="F31" s="222" t="s">
+      <c r="E31" s="221"/>
+      <c r="F31" s="221" t="s">
         <v>880</v>
       </c>
-      <c r="G31" s="222"/>
-      <c r="H31" s="222"/>
+      <c r="G31" s="221"/>
+      <c r="H31" s="221"/>
       <c r="I31" s="77" t="s">
         <v>1121</v>
       </c>
@@ -9904,11 +9904,11 @@
       <c r="D33" s="218" t="s">
         <v>356</v>
       </c>
-      <c r="E33" s="219"/>
+      <c r="E33" s="220"/>
       <c r="F33" s="218" t="s">
         <v>171</v>
       </c>
-      <c r="G33" s="219"/>
+      <c r="G33" s="220"/>
       <c r="H33" s="80" t="s">
         <v>172</v>
       </c>
@@ -9919,14 +9919,14 @@
       <c r="C34" s="74">
         <v>1454</v>
       </c>
-      <c r="D34" s="222" t="s">
+      <c r="D34" s="221" t="s">
         <v>1140</v>
       </c>
-      <c r="E34" s="222"/>
-      <c r="F34" s="223">
+      <c r="E34" s="221"/>
+      <c r="F34" s="222">
         <v>43133</v>
       </c>
-      <c r="G34" s="223"/>
+      <c r="G34" s="222"/>
       <c r="H34" s="83">
         <v>43134</v>
       </c>
@@ -9941,14 +9941,14 @@
       <c r="C35" s="74">
         <v>1455</v>
       </c>
-      <c r="D35" s="222" t="s">
+      <c r="D35" s="221" t="s">
         <v>1140</v>
       </c>
-      <c r="E35" s="222"/>
-      <c r="F35" s="223">
+      <c r="E35" s="221"/>
+      <c r="F35" s="222">
         <v>43132</v>
       </c>
-      <c r="G35" s="223"/>
+      <c r="G35" s="222"/>
       <c r="H35" s="83">
         <v>43159</v>
       </c>
@@ -9964,6 +9964,24 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="D33:E33"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="F30:H30"/>
@@ -9971,24 +9989,6 @@
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D30:E30"/>
     <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15557,11 +15557,11 @@
   <dimension ref="A1:AB208"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Q48" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A8" sqref="A8"/>
       <selection pane="topRight" activeCell="B8" sqref="B8"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D78" sqref="D78"/>
+      <selection pane="bottomRight" activeCell="W52" sqref="W52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -17759,7 +17759,7 @@
       <c r="U51" s="100"/>
       <c r="V51" s="16"/>
       <c r="W51" s="117" t="b">
-        <f>AND(H44=3,OR(H49&gt;20,AND(H50&gt;=0,H50&lt;3.5)))</f>
+        <f>AND(H44=3,(OR(H49&gt;20,AND(H50&gt;=0,H50&lt;3.5,H48=""))))</f>
         <v>0</v>
       </c>
       <c r="X51" s="16"/>
